--- a/biology/Zoologie/Epiaeschna_heros/Epiaeschna_heros.xlsx
+++ b/biology/Zoologie/Epiaeschna_heros/Epiaeschna_heros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeschne majestueuse
 Epiaeschna heros, l’Aeschne majestueuse, est une espèce de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec près de 116 mm d'envergure, c'est la plus large des Aeshnidae d'Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec près de 116 mm d'envergure, c'est la plus large des Aeshnidae d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre au Canada et aux États-Unis[2] : .
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre au Canada et aux États-Unis : .
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Epiaeschna heros (Fabricius, 1798)[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Aeschne Majestueuse[3],[2].
-Epiaeschna heros a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Epiaeschna heros (Fabricius, 1798).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Aeschne Majestueuse,.
+Epiaeschna heros a pour synonymes :
 Aeschna heros Fabricius, 1798
 Aeshna multicincta Say, 1840</t>
         </is>
